--- a/output.xlsx
+++ b/output.xlsx
@@ -28,19 +28,20 @@
     <sheet sheetId="22" name="polygon_usdc_roots.json" state="visible" r:id="rId25"/>
     <sheet sheetId="23" name="polygon_usdt_roots.json" state="visible" r:id="rId26"/>
     <sheet sheetId="24" name="ronin_weth_roots.json" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="scroll_usdc_roots.json" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="sepolia_usdc_roots.json" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="sepolia_weth_roots.json" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="unichain_usdc_roots.json" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="unichain_weth_roots.json" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Rewards" state="visible" r:id="rId33"/>
+    <sheet sheetId="25" name="ronin_wron_roots.json" state="visible" r:id="rId28"/>
+    <sheet sheetId="26" name="scroll_usdc_roots.json" state="visible" r:id="rId29"/>
+    <sheet sheetId="27" name="sepolia_usdc_roots.json" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="sepolia_weth_roots.json" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="unichain_usdc_roots.json" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="unichain_weth_roots.json" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Rewards" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -271,6 +272,9 @@
   </si>
   <si>
     <t>0x840281FaD56DD88afba052B7F18Be2A65796Ecc6</t>
+  </si>
+  <si>
+    <t>0xc0Afdbd1cEB621Ef576BA969ce9D4ceF78Dbc0c0</t>
   </si>
   <si>
     <t>0xB2f97c1Bd3bf02f5e74d13f02E3e26F93D77CE44</t>
@@ -1582,7 +1586,7 @@
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" name="scrollusdcrootsjson_Contracts" displayName="scrollusdcrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" name="roninwronrootsjson_Contracts" displayName="roninwronrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A1:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1600,7 +1604,7 @@
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" name="scrollusdcrootsjson_Curve" displayName="scrollusdcrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" name="roninwronrootsjson_Curve" displayName="roninwronrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A8:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1616,7 +1620,7 @@
 </file>
 
 <file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" name="scrollusdcrootsjson_Collaterals" displayName="scrollusdcrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" name="roninwronrootsjson_Collaterals" displayName="roninwronrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A12:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1632,8 +1636,8 @@
 </file>
 
 <file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" name="sepoliausdcrootsjson_Contracts" displayName="sepoliausdcrootsjson_Contracts" ref="A1:D5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" name="scrollusdcrootsjson_Contracts" displayName="scrollusdcrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1650,8 +1654,8 @@
 </file>
 
 <file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" name="sepoliausdcrootsjson_Curve" displayName="sepoliausdcrootsjson_Curve" ref="A7:C9" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A7:C9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" name="scrollusdcrootsjson_Curve" displayName="scrollusdcrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A8:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1666,8 +1670,8 @@
 </file>
 
 <file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" name="sepoliausdcrootsjson_Collaterals" displayName="sepoliausdcrootsjson_Collaterals" ref="A11:C11" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A11:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" name="scrollusdcrootsjson_Collaterals" displayName="scrollusdcrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A12:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1682,7 +1686,7 @@
 </file>
 
 <file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" name="sepoliawethrootsjson_Contracts" displayName="sepoliawethrootsjson_Contracts" ref="A1:D5" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" name="sepoliausdcrootsjson_Contracts" displayName="sepoliausdcrootsjson_Contracts" ref="A1:D5" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1716,7 +1720,7 @@
 </file>
 
 <file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" name="sepoliawethrootsjson_Curve" displayName="sepoliawethrootsjson_Curve" ref="A7:C9" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" name="sepoliausdcrootsjson_Curve" displayName="sepoliausdcrootsjson_Curve" ref="A7:C9" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A7:C9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1732,7 +1736,7 @@
 </file>
 
 <file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" name="sepoliawethrootsjson_Collaterals" displayName="sepoliawethrootsjson_Collaterals" ref="A11:C11" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" name="sepoliausdcrootsjson_Collaterals" displayName="sepoliausdcrootsjson_Collaterals" ref="A11:C11" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A11:C11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1748,8 +1752,8 @@
 </file>
 
 <file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" name="unichainusdcrootsjson_Contracts" displayName="unichainusdcrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:D6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" name="sepoliawethrootsjson_Contracts" displayName="sepoliawethrootsjson_Contracts" ref="A1:D5" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:D5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1766,8 +1770,8 @@
 </file>
 
 <file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" name="unichainusdcrootsjson_Curve" displayName="unichainusdcrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A8:C10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" name="sepoliawethrootsjson_Curve" displayName="sepoliawethrootsjson_Curve" ref="A7:C9" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A7:C9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1782,8 +1786,8 @@
 </file>
 
 <file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" name="unichainusdcrootsjson_Collaterals" displayName="unichainusdcrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A12:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" name="sepoliawethrootsjson_Collaterals" displayName="sepoliawethrootsjson_Collaterals" ref="A11:C11" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A11:C11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1798,7 +1802,7 @@
 </file>
 
 <file path=xl/tables/table85.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="85" name="unichainwethrootsjson_Contracts" displayName="unichainwethrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="85" name="unichainusdcrootsjson_Contracts" displayName="unichainusdcrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A1:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1816,7 +1820,7 @@
 </file>
 
 <file path=xl/tables/table86.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="86" name="unichainwethrootsjson_Curve" displayName="unichainwethrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="86" name="unichainusdcrootsjson_Curve" displayName="unichainusdcrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A8:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1832,7 +1836,7 @@
 </file>
 
 <file path=xl/tables/table87.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="87" name="unichainwethrootsjson_Collaterals" displayName="unichainwethrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="87" name="unichainusdcrootsjson_Collaterals" displayName="unichainusdcrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A12:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1847,8 +1851,58 @@
 </table>
 </file>
 
+<file path=xl/tables/table88.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" name="unichainwethrootsjson_Contracts" displayName="unichainwethrootsjson_Contracts" ref="A1:D6" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:D6">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Name" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Address" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Note" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table89.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="89" name="unichainwethrootsjson_Curve" displayName="unichainwethrootsjson_Curve" ref="A8:C10" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A8:C10">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="#" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Name" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Value" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" name="arbitrumusdtrootsjson_Collaterals" displayName="arbitrumusdtrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A12:C12">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="#" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Address" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Decimals" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table90.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="90" name="unichainwethrootsjson_Collaterals" displayName="unichainwethrootsjson_Collaterals" ref="A12:C12" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A12:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4560,7 +4614,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4574,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4588,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -4602,7 +4656,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -4627,7 +4681,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,7 +4692,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,7 +4719,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,7 +4744,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4704,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4718,7 +4772,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4729,56 +4783,70 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4820,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4834,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4848,7 +4916,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4862,7 +4930,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -4887,7 +4955,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,7 +4993,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4950,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4964,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4978,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4989,70 +5057,56 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5094,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5108,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -5136,7 +5190,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -5150,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -5356,6 +5410,150 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -5368,37 +5566,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5406,34 +5604,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,34 +5639,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5476,34 +5674,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5511,34 +5709,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5546,34 +5744,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5581,34 +5779,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5616,34 +5814,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5651,48 +5849,48 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1">
         <f>SUM(E2:E9)</f>
@@ -5713,7 +5911,7 @@
         <f>SUM(J2:J9)</f>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
